--- a/temp/pages/StructureDefinition-ITBSchedule.xlsx
+++ b/temp/pages/StructureDefinition-ITBSchedule.xlsx
@@ -6,16 +6,119 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Elements" r:id="rId3" sheetId="1"/>
+    <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$28</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="238">
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>http://portal.wof.purified.link/fhir/StructureDefinition/ITBSchedule</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.1.0</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ITBSchedule</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>ITB Schedule</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2025-08-20T14:32:02+02:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Schedule</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>Path</t>
   </si>
@@ -129,9 +232,6 @@
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Schedule</t>
   </si>
   <si>
     <t xml:space="preserve">Availability
@@ -144,7 +244,8 @@
     <t>*</t>
   </si>
   <si>
-    <t/>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A container for slots of time that may be available for booking appointments</t>
@@ -172,277 +273,409 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Schedule.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Schedule.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Schedule.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Schedule.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Schedule.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Schedule.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Schedule.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Schedule.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Extern identifiering vid behov.</t>
+  </si>
+  <si>
+    <t>External Ids for this item.</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Schedule.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether this schedule is in active use</t>
+  </si>
+  <si>
+    <t>Whether this schedule record is in active use or should not be used (such as was entered in error).</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Schedule.serviceCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>High-level category</t>
+  </si>
+  <si>
+    <t>A broad categorization of the service that is to be performed during this appointment.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-category</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Schedule.serviceType</t>
+  </si>
+  <si>
+    <t>Typ av behandling.</t>
+  </si>
+  <si>
+    <t>The specific service that is to be performed during this appointment.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+  </si>
+  <si>
+    <t>Schedule.specialty</t>
+  </si>
+  <si>
+    <t>Type of specialty needed</t>
+  </si>
+  <si>
+    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
+  </si>
+  <si>
+    <t>Additional details about where the content was created (e.g. clinical specialty).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+  </si>
+  <si>
+    <t>Schedule.actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Device|HealthcareService|Location)
+</t>
+  </si>
+  <si>
+    <t>Referens till PractitionerRole samt HealthcareServiceId</t>
+  </si>
+  <si>
+    <t>Slots that reference this schedule resource provide the availability details to these referenced resource(s).</t>
+  </si>
+  <si>
+    <t>The capacity to support multiple referenced resource types should be used in cases where the specific resources themselves cannot be scheduled without the other, and thus only make sense to the system exposing them as a group. Common examples of this are where the combination of a practitioner and a room (Location) are always required by a system.</t>
+  </si>
+  <si>
+    <t>ATTENDEE:MAILTO:john_public@host2.com This can be populated with a value from the referenced resource</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Schedule.actor.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Schedule.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Schedule.actor.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Schedule.actor.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
 </t>
   </si>
   <si>
-    <t>Schedule.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Schedule.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Schedule.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Schedule.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Schedule.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Schedule.modifierExtension</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Schedule.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Extern identifiering vid behov.</t>
-  </si>
-  <si>
-    <t>External Ids for this item.</t>
-  </si>
-  <si>
-    <t>UID</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Schedule.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Whether this schedule is in active use</t>
-  </si>
-  <si>
-    <t>Whether this schedule record is in active use or should not be used (such as was entered in error).</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Schedule.serviceCategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>High-level category</t>
-  </si>
-  <si>
-    <t>A broad categorization of the service that is to be performed during this appointment.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-category</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Schedule.serviceType</t>
-  </si>
-  <si>
-    <t>Typ av behandling.</t>
-  </si>
-  <si>
-    <t>The specific service that is to be performed during this appointment.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
-  </si>
-  <si>
-    <t>Schedule.specialty</t>
-  </si>
-  <si>
-    <t>Type of specialty needed</t>
-  </si>
-  <si>
-    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
-  </si>
-  <si>
-    <t>Additional details about where the content was created (e.g. clinical specialty).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
-  </si>
-  <si>
-    <t>Schedule.actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Device|HealthcareService|Location)
-</t>
-  </si>
-  <si>
-    <t>Referens till PractitionerRole samt HealthcareServiceId</t>
-  </si>
-  <si>
-    <t>Slots that reference this schedule resource provide the availability details to these referenced resource(s).</t>
-  </si>
-  <si>
-    <t>The capacity to support multiple referenced resource types should be used in cases where the specific resources themselves cannot be scheduled without the other, and thus only make sense to the system exposing them as a group. Common examples of this are where the combination of a practitioner and a room (Location) are always required by a system.</t>
-  </si>
-  <si>
-    <t>ATTENDEE:MAILTO:john_public@host2.com This can be populated with a value from the referenced resource</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
+    <t>Schedule.actor.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Schedule.actor.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Schedule.actor.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>Schedule.planningHorizon</t>
@@ -462,6 +695,59 @@
   </si>
   <si>
     <t>FiveWs.planned</t>
+  </si>
+  <si>
+    <t>Schedule.planningHorizon.id</t>
+  </si>
+  <si>
+    <t>Schedule.planningHorizon.extension</t>
+  </si>
+  <si>
+    <t>Schedule.planningHorizon.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Starting time with inclusive boundary</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per-1
+</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>Schedule.planningHorizon.end</t>
+  </si>
+  <si>
+    <t>End time with inclusive boundary, if not ongoing</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>./high</t>
   </si>
   <si>
     <t>Schedule.comment</t>
@@ -595,10 +881,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -622,1987 +908,3314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
+    <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.703125" customWidth="true"/>
+    <col min="2" max="2" width="80.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AM28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="26.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.31640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="71.41015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.83203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.04296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="39.3125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="20.3359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>37</v>
+        <v>70</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>71</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="M2" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>42</v>
+        <v>80</v>
+      </c>
+      <c r="AM2" t="s" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="AM4" t="s" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="AM5" t="s" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="AM6" t="s" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH7" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="AI7" t="s" s="2">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="O10" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>106</v>
+        <v>143</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>144</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="Q12" t="s" s="2">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>113</v>
+        <v>17</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>151</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X13" s="2"/>
-      <c r="Y13" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>120</v>
+        <v>17</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>158</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X14" s="2"/>
-      <c r="Y14" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>158</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>120</v>
+        <v>17</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>158</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>49</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>174</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>142</v>
+        <v>17</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q27" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL18">
+  <autoFilter ref="A1:AM28">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2612,7 +4225,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI17">
+  <conditionalFormatting sqref="A2:AI27">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
